--- a/biology/Botanique/Thalassiosiropsidaceae/Thalassiosiropsidaceae.xlsx
+++ b/biology/Botanique/Thalassiosiropsidaceae/Thalassiosiropsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thalassiosiropsidaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Archaegladiopsidales.
-Le genre  Thalassiosiropsis, qui a donné son nom à la famille, est un organisme fossile, découvert dans la Formation Moreno (en) en Californie[1].
+Le genre  Thalassiosiropsis, qui a donné son nom à la famille, est un organisme fossile, découvert dans la Formation Moreno (en) en Californie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Thalassiosiropsis, composé du préfixe thalassiosir-, par allusion au genre Thalassiosira[note 1], et du suffixe -opsis, « semblable à ».
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (18 juin 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (18 juin 2022) :
 Gladiopsis R.Gersonde &amp; D.M.Harwood, 1990
 Thalassiosiropsidella Nikolaev &amp; Harwood, 2007
 Thalassiosiropsis G.R.Hasle, 1985</t>
@@ -628,9 +648,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Thalassiosiropsidaceae Nikolaev, 1987[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Thalassiosiropsidaceae Nikolaev, 1987.
 </t>
         </is>
       </c>
